--- a/legislator/property/output/normal/陳超明_2012-04-20_財產申報表_tmpb48f1.xlsx
+++ b/legislator/property/output/normal/陳超明_2012-04-20_財產申報表_tmpb48f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>苗栗縣竹南鎮龍鳳段07500000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>苗栗縣竹南鎮竹南段二小段08360000地號</t>
@@ -104,7 +107,7 @@
     <t>苗栗縣竹南鎮天聲段04630000地號</t>
   </si>
   <si>
-    <t>苗栗縣竹南鎮天聲段04630002</t>
+    <t>苗栗縣竹南鎮天聲段04630002地號</t>
   </si>
   <si>
     <t>苗栗縣竹南鎮五福段03760000地號</t>
@@ -140,18 +143,12 @@
     <t>苗栗縣頭份鎮華夏段03010000地號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>5分之1</t>
   </si>
   <si>
     <t>100000分之18098</t>
   </si>
   <si>
-    <t>5分之]</t>
-  </si>
-  <si>
     <t>20分之1</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>陳超明</t>
   </si>
   <si>
-    <t>67年11月16日</t>
-  </si>
-  <si>
     <t>73年11月19日</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>繼承</t>
   </si>
   <si>
-    <t>(超堝五年）</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
@@ -239,42 +230,12 @@
     <t>tmpb48f1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>苗栗縣竹南鎮照南里2鄰光復路</t>
   </si>
   <si>
     <t>100000分之33333</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>全球人壽</t>
   </si>
   <si>
@@ -284,24 +245,6 @@
     <t>全球人壽終身壽險</t>
   </si>
   <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債務</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘</t>
-  </si>
-  <si>
     <t>抵押貸款</t>
   </si>
   <si>
@@ -312,24 +255,6 @@
   </si>
   <si>
     <t>資金周轉</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>台灣聚優股份有限公司</t>
@@ -700,13 +625,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,1227 +674,1336 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>95</v>
+        <v>19.2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2">
         <v>836</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>19.2</v>
+        <v>128.2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" s="2">
         <v>836</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>128.2</v>
+        <v>1.6</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="2">
         <v>836</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2">
         <v>836</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2">
         <v>836</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>4.6</v>
+        <v>18.6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M7" s="2">
         <v>836</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>18.6</v>
+        <v>24.2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" s="2">
         <v>836</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>24.2</v>
+        <v>10.2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="2">
         <v>836</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>10.2</v>
+        <v>13.2</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="2">
+        <v>836</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>74.56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="2">
+        <v>836</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.18098</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>13.4938688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="2">
+        <v>836</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="2">
+        <v>836</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="2">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>265.64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="2">
-        <v>836</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2">
-        <v>13.2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="2">
+        <v>836</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>13.282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="2">
-        <v>836</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>74.56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="2">
-        <v>836</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="2">
-        <v>836</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="2">
-        <v>836</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2">
-        <v>265.64</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="2">
         <v>836</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>2.15</v>
+        <v>348.39</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="H16" s="2">
+        <v>20180</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M16" s="2">
         <v>836</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.0321864725223109</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>11.2134451620479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>348.39</v>
+        <v>59.42</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="2">
-        <v>20180</v>
+        <v>2674</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M17" s="2">
         <v>836</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O17" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.025</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1.4855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>59.42</v>
+        <v>210.86</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2">
-        <v>2674</v>
+        <v>15812</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" s="2">
         <v>836</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O18" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>8.78583333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>210.86</v>
+        <v>2066.81</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2">
-        <v>15812</v>
+        <v>154986</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M19" s="2">
         <v>836</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O19" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>86.1170833333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>2066.81</v>
+        <v>2.84</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H20" s="2">
-        <v>154986</v>
+        <v>55</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" s="2">
         <v>836</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O20" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.010729284668306</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.0304711684579891</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>2.84</v>
+        <v>0.64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H21" s="2">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="2">
         <v>836</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O21" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.010729284668306</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.00686674218771586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>0.64</v>
+        <v>24.72</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" s="2">
-        <v>12</v>
+        <v>1432</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="2">
         <v>836</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O22" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.0321864725223109</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.795649600751527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>24.72</v>
+        <v>1.82</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" s="2">
-        <v>1432</v>
+        <v>70</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M23" s="2">
         <v>836</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O23" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.0214571878540049</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.039052081894289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>1.82</v>
+        <v>0.85</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="2">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="2">
+        <v>836</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="2">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.00916666666666667</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.00779166666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="2">
-        <v>70</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" s="2">
-        <v>836</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1">
-        <v>37</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H25" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M25" s="2">
         <v>836</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O25" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.00916666666666667</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.000366666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>0.04</v>
+        <v>21.65</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26" s="2">
         <v>836</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O26" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1">
         <v>39</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2">
-        <v>21.65</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="2">
-        <v>836</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O27" s="2">
-        <v>39</v>
+      <c r="P26" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1.44333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1979,59 +2013,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="C1" s="1">
+        <v>128.3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2">
-        <v>128.3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2049,41 +2057,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>102</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2093,53 +2087,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5483004</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>113</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5483004</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2149,53 +2120,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>119</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳超明_2012-04-20_財產申報表_tmpb48f1.xlsx
+++ b/legislator/property/output/normal/陳超明_2012-04-20_財產申報表_tmpb48f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>苗栗縣竹南鎮龍鳳段07500000地號</t>
+  </si>
+  <si>
     <t>苗栗縣竹南鎮竹南段二小段08360000地號</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>苗栗縣頭份鎮華夏段03010000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>5分之1</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
     <t>陳超明</t>
   </si>
   <si>
+    <t>67年11月16日</t>
+  </si>
+  <si>
     <t>73年11月19日</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
   </si>
   <si>
     <t>繼承</t>
+  </si>
+  <si>
+    <t>(超堝五年）</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -625,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,1326 +695,1379 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>19.2</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M2" s="2">
         <v>836</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>3.84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>128.2</v>
+        <v>19.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M3" s="2">
         <v>836</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.2</v>
       </c>
       <c r="Q3" s="2">
-        <v>25.64</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1.6</v>
+        <v>128.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2">
         <v>836</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.2</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.32</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M5" s="2">
         <v>836</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.2</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.56</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2">
         <v>836</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.2</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.92</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>18.6</v>
+        <v>4.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2">
         <v>836</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.2</v>
       </c>
       <c r="Q7" s="2">
-        <v>3.72</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>24.2</v>
+        <v>18.6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M8" s="2">
         <v>836</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.2</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.84</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>10.2</v>
+        <v>24.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M9" s="2">
         <v>836</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.2</v>
       </c>
       <c r="Q9" s="2">
-        <v>2.04</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>13.2</v>
+        <v>10.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="2">
         <v>836</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.2</v>
       </c>
       <c r="Q10" s="2">
-        <v>2.64</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>74.56</v>
+        <v>13.2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M11" s="2">
         <v>836</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.18098</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" s="2">
-        <v>13.4938688</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>15</v>
+        <v>74.56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M12" s="2">
         <v>836</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.2</v>
+        <v>0.18098</v>
       </c>
       <c r="Q12" s="2">
-        <v>3</v>
+        <v>13.4938688</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M13" s="2">
         <v>836</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>0.2</v>
       </c>
       <c r="Q13" s="2">
-        <v>5.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>265.64</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M14" s="2">
         <v>836</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" s="2">
-        <v>13.282</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>2.15</v>
+        <v>265.64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M15" s="2">
         <v>836</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>0.05</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.1075</v>
+        <v>13.282</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>348.39</v>
+        <v>2.15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="2">
-        <v>20180</v>
+        <v>66</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M16" s="2">
         <v>836</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
-        <v>0.0321864725223109</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" s="2">
-        <v>11.2134451620479</v>
+        <v>0.1075</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>59.42</v>
+        <v>348.39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H17" s="2">
-        <v>2674</v>
+        <v>20180</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M17" s="2">
         <v>836</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
-        <v>0.025</v>
+        <v>0.0321864725223109</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.4855</v>
+        <v>11.2134451620479</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>210.86</v>
+        <v>59.42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H18" s="2">
-        <v>15812</v>
+        <v>2674</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M18" s="2">
         <v>836</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0416666666666667</v>
+        <v>0.025</v>
       </c>
       <c r="Q18" s="2">
-        <v>8.78583333333333</v>
+        <v>1.4855</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>2066.81</v>
+        <v>210.86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H19" s="2">
-        <v>154986</v>
+        <v>15812</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M19" s="2">
         <v>836</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2">
         <v>0.0416666666666667</v>
       </c>
       <c r="Q19" s="2">
-        <v>86.1170833333333</v>
+        <v>8.78583333333333</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>2.84</v>
+        <v>2066.81</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H20" s="2">
-        <v>55</v>
+        <v>154986</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M20" s="2">
         <v>836</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2">
-        <v>0.010729284668306</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Q20" s="2">
-        <v>0.0304711684579891</v>
+        <v>86.1170833333333</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>0.64</v>
+        <v>2.84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H21" s="2">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M21" s="2">
         <v>836</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P21" s="2">
         <v>0.010729284668306</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.00686674218771586</v>
+        <v>0.0304711684579891</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>24.72</v>
+        <v>0.64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H22" s="2">
-        <v>1432</v>
+        <v>12</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M22" s="2">
         <v>836</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P22" s="2">
-        <v>0.0321864725223109</v>
+        <v>0.010729284668306</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.795649600751527</v>
+        <v>0.00686674218771586</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>1.82</v>
+        <v>24.72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H23" s="2">
-        <v>70</v>
+        <v>1432</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M23" s="2">
         <v>836</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="2">
-        <v>0.0214571878540049</v>
+        <v>0.0321864725223109</v>
       </c>
       <c r="Q23" s="2">
-        <v>0.039052081894289</v>
+        <v>0.795649600751527</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>0.85</v>
+        <v>1.82</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H24" s="2">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M24" s="2">
         <v>836</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O24" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P24" s="2">
-        <v>0.00916666666666667</v>
+        <v>0.0214571878540049</v>
       </c>
       <c r="Q24" s="2">
-        <v>0.00779166666666667</v>
+        <v>0.039052081894289</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>0.04</v>
+        <v>0.85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M25" s="2">
         <v>836</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O25" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P25" s="2">
         <v>0.00916666666666667</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.000366666666666667</v>
+        <v>0.00779166666666667</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="2">
+        <v>836</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="2">
+        <v>38</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.00916666666666667</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.000366666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
         <v>21.65</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="E27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" s="2">
-        <v>836</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O26" s="2">
+      <c r="I27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="2">
+        <v>836</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O27" s="2">
         <v>39</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P27" s="2">
         <v>0.0666666666666667</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q27" s="2">
         <v>1.44333333333333</v>
       </c>
     </row>
@@ -2013,33 +2078,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2">
         <v>128.3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="2">
+        <v>836</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.33333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>42.766239</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2194,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2057,27 +2202,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>102</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2087,30 +2246,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>5483004</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5483004</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2120,30 +2302,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳超明_2012-04-20_財產申報表_tmpb48f1.xlsx
+++ b/legislator/property/output/normal/陳超明_2012-04-20_財產申報表_tmpb48f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>100000分之33333</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>全球人壽</t>
@@ -2160,7 +2163,7 @@
         <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>71</v>
@@ -2202,10 +2205,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>54</v>
@@ -2216,10 +2219,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>54</v>
@@ -2230,10 +2233,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>54</v>
@@ -2254,22 +2257,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>5483004</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2277,22 +2280,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>5483004</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2313,19 +2316,19 @@
         <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2336,19 +2339,19 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳超明_2012-04-20_財產申報表_tmpb48f1.xlsx
+++ b/legislator/property/output/normal/陳超明_2012-04-20_財產申報表_tmpb48f1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -251,6 +251,9 @@
     <t>building</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>全球人壽</t>
   </si>
   <si>
@@ -260,6 +263,15 @@
     <t>全球人壽終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押貸款</t>
   </si>
   <si>
@@ -272,6 +284,12 @@
     <t>資金周轉</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>台灣聚優股份有限公司</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2197,49 +2218,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2">
+        <v>836</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2">
+        <v>836</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2249,53 +2333,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5483004</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>5483004</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="2">
+        <v>836</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="2">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2305,33 +2431,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1000000</v>
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>119</v>
       </c>
@@ -2339,19 +2486,40 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="2">
+        <v>836</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
